--- a/LCDataDictionary.xlsx
+++ b/LCDataDictionary.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shraddhajain/Desktop/LendingClub_519/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="28680" windowHeight="15760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
@@ -23,9 +18,6 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="304">
   <si>
     <t>id</t>
   </si>
@@ -938,13 +930,22 @@
   </si>
   <si>
     <t>Separate dataset - for textual analysis</t>
+  </si>
+  <si>
+    <t>Keep but don't train on</t>
+  </si>
+  <si>
+    <t>Binarize</t>
+  </si>
+  <si>
+    <t>Standardize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,8 +1119,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1333,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,7 +1609,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1617,11 +1642,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,7 +1659,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,6 +1669,27 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1743,14 +1783,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2044,14 +2076,14 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.5" customWidth="1"/>
@@ -2059,205 +2091,203 @@
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="45" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" s="41" customFormat="1" ht="15">
+      <c r="A1" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="46" customFormat="1">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" s="46" customFormat="1">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" s="51" customFormat="1" ht="28">
+      <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="51">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" s="51" customFormat="1">
+      <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="51">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:3" s="51" customFormat="1">
+      <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="51">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:3" s="25" customFormat="1">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:3" s="38" customFormat="1">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="38">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" s="51" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="51">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:3" s="38" customFormat="1">
+      <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="38">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="42" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:3" s="38" customFormat="1" ht="14" customHeight="1">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="39">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:3" s="25" customFormat="1">
+      <c r="A12" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="25">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" s="51" customFormat="1" ht="28">
+      <c r="A13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="51">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:3" s="54" customFormat="1" ht="28">
+      <c r="A14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="54">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" s="51" customFormat="1">
+      <c r="A15" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="55">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:3" s="54" customFormat="1">
+      <c r="A16" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="38">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" s="25" customFormat="1">
+      <c r="A17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="25">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:3" s="36" customFormat="1" ht="14" customHeight="1">
+      <c r="A18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="36">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="5" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2268,29 +2298,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:3" s="25" customFormat="1">
+      <c r="A20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="28">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:3" s="31" customFormat="1">
+      <c r="A21" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="31">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="4" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -2301,18 +2331,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:3" s="31" customFormat="1">
+      <c r="A23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="32">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="4" customFormat="1">
       <c r="A24" s="15" t="s">
         <v>248</v>
       </c>
@@ -2323,7 +2353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="5" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
@@ -2334,7 +2364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="28">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2345,7 +2375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" s="4" customFormat="1">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
@@ -2356,7 +2386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="5" customFormat="1">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2367,29 +2397,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="5" customFormat="1">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="34">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="5" customFormat="1">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="34">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -2400,7 +2430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" s="5" customFormat="1">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
@@ -2411,7 +2441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="4" customFormat="1">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="22" customFormat="1">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -2433,7 +2463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="4" customFormat="1">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -2444,7 +2474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="4" customFormat="1">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -2455,7 +2485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="5" customFormat="1">
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
@@ -2468,195 +2498,195 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:11" s="25" customFormat="1">
+      <c r="A38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="28">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+    <row r="39" spans="1:11" s="28" customFormat="1">
+      <c r="A39" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="28">
         <v>37</v>
       </c>
-      <c r="D39" s="28"/>
-    </row>
-    <row r="40" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:11" s="28" customFormat="1">
+      <c r="A40" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="28">
         <v>38</v>
       </c>
-      <c r="D40" s="28"/>
-    </row>
-    <row r="41" spans="1:11" s="31" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" s="28" customFormat="1" ht="16" customHeight="1">
+      <c r="A41" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="28">
         <v>39</v>
       </c>
-      <c r="D41" s="28"/>
-    </row>
-    <row r="42" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" spans="1:11" s="28" customFormat="1">
+      <c r="A42" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="28">
         <v>40</v>
       </c>
-      <c r="D42" s="28"/>
-    </row>
-    <row r="43" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:11" s="28" customFormat="1">
+      <c r="A43" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="28">
         <v>41</v>
       </c>
-      <c r="D43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44" spans="1:11" s="28" customFormat="1">
+      <c r="A44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="28">
         <v>42</v>
       </c>
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="1:11" s="28" customFormat="1">
+      <c r="A45" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="28">
         <v>43</v>
       </c>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:11" s="28" customFormat="1">
+      <c r="A46" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="25">
         <v>44</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
+      <c r="D46" s="25"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+    </row>
+    <row r="47" spans="1:11" s="28" customFormat="1">
+      <c r="A47" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="25">
         <v>45</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-    </row>
-    <row r="48" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
+      <c r="D47" s="25"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+    </row>
+    <row r="48" spans="1:11" s="28" customFormat="1">
+      <c r="A48" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="25">
         <v>46</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-    </row>
-    <row r="49" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
+      <c r="D48" s="25"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+    </row>
+    <row r="49" spans="1:4" s="28" customFormat="1">
+      <c r="A49" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="25">
         <v>47</v>
       </c>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" s="28" customFormat="1">
+      <c r="A50" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="25">
         <v>48</v>
       </c>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" s="28" customFormat="1">
+      <c r="A51" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="28">
+      <c r="C51" s="25">
         <v>49</v>
       </c>
-      <c r="D51" s="28"/>
-    </row>
-    <row r="52" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" s="28" customFormat="1">
+      <c r="A52" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="25">
         <v>50</v>
       </c>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="D52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" ht="28">
       <c r="A53" s="3" t="s">
         <v>130</v>
       </c>
@@ -2668,7 +2698,7 @@
       </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" s="6" customFormat="1">
       <c r="A54" s="7" t="s">
         <v>253</v>
       </c>
@@ -2680,7 +2710,7 @@
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" s="6" customFormat="1">
       <c r="A55" s="7" t="s">
         <v>255</v>
       </c>
@@ -2692,7 +2722,7 @@
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" s="6" customFormat="1">
       <c r="A56" s="7" t="s">
         <v>256</v>
       </c>
@@ -2704,7 +2734,7 @@
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" s="6" customFormat="1">
       <c r="A57" s="7" t="s">
         <v>258</v>
       </c>
@@ -2716,7 +2746,7 @@
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" s="6" customFormat="1">
       <c r="A58" s="8" t="s">
         <v>293</v>
       </c>
@@ -2728,7 +2758,7 @@
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="6" customFormat="1">
       <c r="A59" s="8" t="s">
         <v>129</v>
       </c>
@@ -2740,7 +2770,7 @@
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="6" customFormat="1">
       <c r="A60" s="9" t="s">
         <v>114</v>
       </c>
@@ -2752,7 +2782,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>267</v>
       </c>
@@ -2764,7 +2794,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>269</v>
       </c>
@@ -2775,7 +2805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="9" t="s">
         <v>271</v>
       </c>
@@ -2786,7 +2816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>273</v>
       </c>
@@ -2797,7 +2827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="9" t="s">
         <v>275</v>
       </c>
@@ -2808,7 +2838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="9" t="s">
         <v>277</v>
       </c>
@@ -2819,7 +2849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="9" t="s">
         <v>279</v>
       </c>
@@ -2830,7 +2860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="9" t="s">
         <v>281</v>
       </c>
@@ -2841,7 +2871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="9" t="s">
         <v>283</v>
       </c>
@@ -2852,7 +2882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="9" t="s">
         <v>285</v>
       </c>
@@ -2863,7 +2893,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="9" t="s">
         <v>287</v>
       </c>
@@ -2874,7 +2904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="9" t="s">
         <v>218</v>
       </c>
@@ -2885,7 +2915,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="9" t="s">
         <v>289</v>
       </c>
@@ -2897,7 +2927,7 @@
       </c>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="9" t="s">
         <v>295</v>
       </c>
@@ -2908,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="9" t="s">
         <v>291</v>
       </c>
@@ -2919,7 +2949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="7" t="s">
         <v>26</v>
       </c>
@@ -2928,7 +2958,7 @@
       </c>
       <c r="C76" s="11"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="7" t="s">
         <v>25</v>
       </c>
@@ -2937,7 +2967,7 @@
       </c>
       <c r="C77" s="11"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="7" t="s">
         <v>13</v>
       </c>
@@ -2946,7 +2976,7 @@
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="7" t="s">
         <v>47</v>
       </c>
@@ -2955,8 +2985,8 @@
       </c>
       <c r="C79" s="11"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="36" t="s">
+    <row r="80" spans="1:6">
+      <c r="A80" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B80" s="11" t="s">
@@ -2964,27 +2994,45 @@
       </c>
       <c r="C80" s="11"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="B81" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
+    <row r="86" spans="1:2">
+      <c r="A86" s="28"/>
       <c r="B86" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="43"/>
+    <row r="87" spans="1:2">
+      <c r="A87" s="39"/>
       <c r="B87" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="35"/>
+    <row r="88" spans="1:2">
+      <c r="A88" s="32"/>
       <c r="B88" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="43"/>
+      <c r="B89" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="47"/>
+      <c r="B90" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="48"/>
+      <c r="B91" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2998,6 +3046,11 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3006,18 +3059,18 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="235.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="235.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="13" t="s">
         <v>220</v>
       </c>
@@ -3025,7 +3078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>184</v>
       </c>
@@ -3036,7 +3089,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>192</v>
       </c>
@@ -3047,7 +3100,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>193</v>
       </c>
@@ -3058,7 +3111,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>191</v>
       </c>
@@ -3069,7 +3122,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="6" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>255</v>
       </c>
@@ -3077,7 +3130,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>181</v>
       </c>
@@ -3087,7 +3140,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="6" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>253</v>
       </c>
@@ -3096,7 +3149,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>115</v>
       </c>
@@ -3106,7 +3159,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>194</v>
       </c>
@@ -3117,7 +3170,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>196</v>
       </c>
@@ -3128,7 +3181,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>106</v>
       </c>
@@ -3138,7 +3191,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>107</v>
       </c>
@@ -3148,7 +3201,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>188</v>
       </c>
@@ -3159,7 +3212,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>197</v>
       </c>
@@ -3170,7 +3223,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>198</v>
       </c>
@@ -3181,7 +3234,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -3192,7 +3245,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
@@ -3203,7 +3256,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="6" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>256</v>
       </c>
@@ -3212,7 +3265,7 @@
       </c>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>199</v>
       </c>
@@ -3223,7 +3276,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>240</v>
       </c>
@@ -3233,7 +3286,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>167</v>
       </c>
@@ -3244,7 +3297,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>178</v>
       </c>
@@ -3255,7 +3308,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>186</v>
       </c>
@@ -3266,7 +3319,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>174</v>
       </c>
@@ -3277,7 +3330,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>201</v>
       </c>
@@ -3288,7 +3341,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>200</v>
       </c>
@@ -3299,7 +3352,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>172</v>
       </c>
@@ -3310,7 +3363,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>8</v>
       </c>
@@ -3321,7 +3374,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>180</v>
       </c>
@@ -3332,7 +3385,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>0</v>
       </c>
@@ -3343,7 +3396,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>162</v>
       </c>
@@ -3353,7 +3406,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="9" t="s">
         <v>217</v>
       </c>
@@ -3363,7 +3416,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>202</v>
       </c>
@@ -3374,7 +3427,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="9" t="s">
         <v>7</v>
       </c>
@@ -3385,7 +3438,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="9" t="s">
         <v>173</v>
       </c>
@@ -3396,7 +3449,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="9" t="s">
         <v>183</v>
       </c>
@@ -3407,7 +3460,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="9" t="s">
         <v>187</v>
       </c>
@@ -3418,7 +3471,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="9" t="s">
         <v>171</v>
       </c>
@@ -3429,7 +3482,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="9" t="s">
         <v>170</v>
       </c>
@@ -3440,7 +3493,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="9" t="s">
         <v>125</v>
       </c>
@@ -3450,7 +3503,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="9" t="s">
         <v>126</v>
       </c>
@@ -3460,7 +3513,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="9" t="s">
         <v>112</v>
       </c>
@@ -3470,7 +3523,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="9" t="s">
         <v>209</v>
       </c>
@@ -3480,7 +3533,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
@@ -3490,7 +3543,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="9" t="s">
         <v>109</v>
       </c>
@@ -3501,7 +3554,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="9" t="s">
         <v>102</v>
       </c>
@@ -3511,7 +3564,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="9" t="s">
         <v>203</v>
       </c>
@@ -3521,7 +3574,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="9" t="s">
         <v>204</v>
       </c>
@@ -3531,7 +3584,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="9" t="s">
         <v>205</v>
       </c>
@@ -3541,7 +3594,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="9" t="s">
         <v>208</v>
       </c>
@@ -3551,7 +3604,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="9" t="s">
         <v>206</v>
       </c>
@@ -3561,7 +3614,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="9" t="s">
         <v>207</v>
       </c>
@@ -3570,7 +3623,7 @@
       </c>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="9" t="s">
         <v>105</v>
       </c>
@@ -3579,7 +3632,7 @@
       </c>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="9" t="s">
         <v>117</v>
       </c>
@@ -3588,7 +3641,7 @@
       </c>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
         <v>124</v>
       </c>
@@ -3597,7 +3650,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="9" t="s">
         <v>118</v>
       </c>
@@ -3606,7 +3659,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="9" t="s">
         <v>116</v>
       </c>
@@ -3615,7 +3668,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="9" t="s">
         <v>123</v>
       </c>
@@ -3624,7 +3677,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="9" t="s">
         <v>128</v>
       </c>
@@ -3633,7 +3686,7 @@
       </c>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="9" t="s">
         <v>103</v>
       </c>
@@ -3642,7 +3695,7 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="9" t="s">
         <v>127</v>
       </c>
@@ -3651,7 +3704,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="9" t="s">
         <v>110</v>
       </c>
@@ -3660,7 +3713,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="9" t="s">
         <v>122</v>
       </c>
@@ -3669,7 +3722,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="9" t="s">
         <v>121</v>
       </c>
@@ -3678,7 +3731,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="9" t="s">
         <v>120</v>
       </c>
@@ -3687,7 +3740,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="9" t="s">
         <v>111</v>
       </c>
@@ -3696,7 +3749,7 @@
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="9" t="s">
         <v>210</v>
       </c>
@@ -3705,7 +3758,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="9" t="s">
         <v>119</v>
       </c>
@@ -3714,7 +3767,7 @@
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="9" t="s">
         <v>195</v>
       </c>
@@ -3724,7 +3777,7 @@
       <c r="D70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="9" t="s">
         <v>104</v>
       </c>
@@ -3733,7 +3786,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="9" t="s">
         <v>211</v>
       </c>
@@ -3742,7 +3795,7 @@
       </c>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="9" t="s">
         <v>19</v>
       </c>
@@ -3752,7 +3805,7 @@
       <c r="D73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="9" t="s">
         <v>190</v>
       </c>
@@ -3762,7 +3815,7 @@
       <c r="D74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="9" t="s">
         <v>189</v>
       </c>
@@ -3772,7 +3825,7 @@
       <c r="D75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="9" t="s">
         <v>213</v>
       </c>
@@ -3781,7 +3834,7 @@
       </c>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="9" t="s">
         <v>214</v>
       </c>
@@ -3790,7 +3843,7 @@
       </c>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="9" t="s">
         <v>175</v>
       </c>
@@ -3800,7 +3853,7 @@
       <c r="D78" s="6"/>
       <c r="F78" s="6"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="9" t="s">
         <v>177</v>
       </c>
@@ -3810,7 +3863,7 @@
       <c r="D79" s="6"/>
       <c r="F79" s="6"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="9" t="s">
         <v>108</v>
       </c>
@@ -3819,7 +3872,7 @@
       </c>
       <c r="F80" s="6"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="9" t="s">
         <v>5</v>
       </c>
@@ -3829,7 +3882,7 @@
       <c r="D81" s="6"/>
       <c r="F81" s="6"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="9" t="s">
         <v>20</v>
       </c>
@@ -3839,7 +3892,7 @@
       <c r="D82" s="6"/>
       <c r="F82" s="6"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="9" t="s">
         <v>129</v>
       </c>
@@ -3848,7 +3901,7 @@
       </c>
       <c r="F83" s="6"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="9" t="s">
         <v>114</v>
       </c>
@@ -3857,7 +3910,7 @@
       </c>
       <c r="F84" s="6"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="9" t="s">
         <v>113</v>
       </c>
@@ -3866,7 +3919,7 @@
       </c>
       <c r="F85" s="6"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="9" t="s">
         <v>101</v>
       </c>
@@ -3875,7 +3928,7 @@
       </c>
       <c r="F86" s="6"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="9" t="s">
         <v>218</v>
       </c>
@@ -3884,7 +3937,7 @@
       </c>
       <c r="F87" s="6"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="9" t="s">
         <v>216</v>
       </c>
@@ -3893,7 +3946,7 @@
       </c>
       <c r="F88" s="6"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="9" t="s">
         <v>212</v>
       </c>
@@ -3902,7 +3955,7 @@
       </c>
       <c r="F89" s="6"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="9" t="s">
         <v>215</v>
       </c>
@@ -3911,7 +3964,7 @@
       </c>
       <c r="F90" s="6"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="9" t="s">
         <v>17</v>
       </c>
@@ -3921,7 +3974,7 @@
       <c r="D91" s="6"/>
       <c r="F91" s="6"/>
     </row>
-    <row r="92" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="6" customFormat="1">
       <c r="A92" s="7" t="s">
         <v>258</v>
       </c>
@@ -3930,7 +3983,7 @@
       </c>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="19" t="s">
         <v>248</v>
       </c>
@@ -3940,7 +3993,7 @@
       <c r="D93" s="6"/>
       <c r="F93" s="6"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="9" t="s">
         <v>267</v>
       </c>
@@ -3948,7 +4001,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="9" t="s">
         <v>269</v>
       </c>
@@ -3956,7 +4009,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="9" t="s">
         <v>271</v>
       </c>
@@ -3964,7 +4017,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" s="9" t="s">
         <v>273</v>
       </c>
@@ -3972,7 +4025,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" s="9" t="s">
         <v>275</v>
       </c>
@@ -3980,7 +4033,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" s="9" t="s">
         <v>277</v>
       </c>
@@ -3988,7 +4041,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" s="9" t="s">
         <v>279</v>
       </c>
@@ -3996,7 +4049,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" s="9" t="s">
         <v>281</v>
       </c>
@@ -4004,7 +4057,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" s="9" t="s">
         <v>283</v>
       </c>
@@ -4012,7 +4065,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" s="9" t="s">
         <v>285</v>
       </c>
@@ -4020,7 +4073,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" s="9" t="s">
         <v>287</v>
       </c>
@@ -4028,7 +4081,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" s="9" t="s">
         <v>289</v>
       </c>
@@ -4036,7 +4089,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" s="9" t="s">
         <v>295</v>
       </c>
@@ -4044,7 +4097,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="9" t="s">
         <v>291</v>
       </c>
@@ -4052,7 +4105,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="B109" s="11" t="s">
         <v>169</v>
       </c>
@@ -4068,6 +4121,11 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4079,13 +4137,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="225.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
         <v>228</v>
       </c>
@@ -4093,7 +4151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
         <v>229</v>
       </c>
@@ -4101,7 +4159,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
         <v>230</v>
       </c>
@@ -4109,7 +4167,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
         <v>231</v>
       </c>
@@ -4117,7 +4175,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
         <v>244</v>
       </c>
@@ -4125,7 +4183,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
         <v>232</v>
       </c>
@@ -4133,7 +4191,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
         <v>246</v>
       </c>
@@ -4141,7 +4199,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
         <v>233</v>
       </c>
@@ -4149,7 +4207,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
         <v>234</v>
       </c>
@@ -4157,7 +4215,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="28">
       <c r="A10" s="15" t="s">
         <v>235</v>
       </c>
@@ -4165,11 +4223,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
     </row>
@@ -4177,5 +4235,10 @@
   <autoFilter ref="A1:B10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/LCDataDictionary.xlsx
+++ b/LCDataDictionary.xlsx
@@ -1611,20 +1611,15 @@
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1642,7 +1637,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1657,8 +1651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1690,6 +1682,14 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2079,958 +2079,957 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.5" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" ht="15">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:3" s="35" customFormat="1" ht="15">
+      <c r="A1" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="46" customFormat="1">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:3" s="40" customFormat="1">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="40">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="46" customFormat="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:3" s="40" customFormat="1">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="51" customFormat="1" ht="28">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:3" s="45" customFormat="1" ht="28">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="51" customFormat="1">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:3" s="45" customFormat="1">
+      <c r="A5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="51" customFormat="1">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:3" s="45" customFormat="1">
+      <c r="A6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="45">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="25" customFormat="1">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:3" s="21" customFormat="1">
+      <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="38" customFormat="1">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:3" s="32" customFormat="1">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="32">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="51" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:3" s="45" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="45">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="38" customFormat="1">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:3" s="32" customFormat="1">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="32">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="38" customFormat="1" ht="14" customHeight="1">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:3" s="32" customFormat="1" ht="14" customHeight="1">
+      <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="25" customFormat="1">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:3" s="21" customFormat="1">
+      <c r="A12" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="51" customFormat="1" ht="28">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:3" s="45" customFormat="1" ht="28">
+      <c r="A13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="45">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="54" customFormat="1" ht="28">
-      <c r="A14" s="52" t="s">
+    <row r="14" spans="1:3" s="48" customFormat="1" ht="28">
+      <c r="A14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="48">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="51" customFormat="1">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:3" s="45" customFormat="1">
+      <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="49">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="54" customFormat="1">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:3" s="48" customFormat="1">
+      <c r="A16" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="25" customFormat="1">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:3" s="21" customFormat="1">
+      <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="36" customFormat="1" ht="14" customHeight="1">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:3" s="30" customFormat="1" ht="14" customHeight="1">
+      <c r="A18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="30">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:3" s="21" customFormat="1">
+      <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="24">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="25" customFormat="1">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:3" s="21" customFormat="1">
+      <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="24">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="31" customFormat="1">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:3" s="27" customFormat="1">
+      <c r="A21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="27">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" s="25" customFormat="1">
+      <c r="A22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="25">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="31" customFormat="1">
-      <c r="A23" s="29" t="s">
+    <row r="23" spans="1:3" s="27" customFormat="1">
+      <c r="A23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="28">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:3" s="21" customFormat="1">
+      <c r="A24" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:3" s="48" customFormat="1">
+      <c r="A25" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="48">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="28">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" s="45" customFormat="1">
+      <c r="A26" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="49">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" s="45" customFormat="1">
+      <c r="A27" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="45">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:3" s="21" customFormat="1">
+      <c r="A28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="21">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3" s="45" customFormat="1">
+      <c r="A29" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="49">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:3" s="45" customFormat="1">
+      <c r="A30" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="49">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:3" s="45" customFormat="1" ht="18" customHeight="1">
+      <c r="A31" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="45">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:3" s="45" customFormat="1">
+      <c r="A32" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="42">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="4" customFormat="1">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:11" s="45" customFormat="1">
+      <c r="A33" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="42">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="22" customFormat="1">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:11" s="53" customFormat="1">
+      <c r="A34" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="42">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="4" customFormat="1">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:11" s="45" customFormat="1">
+      <c r="A35" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="42">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="4" customFormat="1">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:11" s="45" customFormat="1">
+      <c r="A36" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="42">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:11" s="48" customFormat="1">
+      <c r="A37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="48">
         <v>35</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" s="25" customFormat="1">
-      <c r="A38" s="23" t="s">
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="1:11" s="21" customFormat="1">
+      <c r="A38" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="24">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="28" customFormat="1">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:11" s="24" customFormat="1">
+      <c r="A39" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="24">
         <v>37</v>
       </c>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:11" s="28" customFormat="1">
-      <c r="A40" s="23" t="s">
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" s="24" customFormat="1">
+      <c r="A40" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="24">
         <v>38</v>
       </c>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:11" s="28" customFormat="1" ht="16" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A41" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="24">
         <v>39</v>
       </c>
-      <c r="D41" s="25"/>
-    </row>
-    <row r="42" spans="1:11" s="28" customFormat="1">
-      <c r="A42" s="23" t="s">
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" s="24" customFormat="1">
+      <c r="A42" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="24">
         <v>40</v>
       </c>
-      <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:11" s="28" customFormat="1">
-      <c r="A43" s="23" t="s">
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" s="24" customFormat="1">
+      <c r="A43" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="24">
         <v>41</v>
       </c>
-      <c r="D43" s="25"/>
-    </row>
-    <row r="44" spans="1:11" s="28" customFormat="1">
-      <c r="A44" s="23" t="s">
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" s="24" customFormat="1">
+      <c r="A44" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="24">
         <v>42</v>
       </c>
-      <c r="D44" s="25"/>
-    </row>
-    <row r="45" spans="1:11" s="28" customFormat="1">
-      <c r="A45" s="23" t="s">
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" s="24" customFormat="1">
+      <c r="A45" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="24">
         <v>43</v>
       </c>
-      <c r="D45" s="25"/>
-    </row>
-    <row r="46" spans="1:11" s="28" customFormat="1">
-      <c r="A46" s="23" t="s">
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" s="24" customFormat="1">
+      <c r="A46" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="21">
         <v>44</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-    </row>
-    <row r="47" spans="1:11" s="28" customFormat="1">
-      <c r="A47" s="23" t="s">
+      <c r="D46" s="21"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+    </row>
+    <row r="47" spans="1:11" s="24" customFormat="1">
+      <c r="A47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="21">
         <v>45</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="1:11" s="28" customFormat="1">
-      <c r="A48" s="23" t="s">
+      <c r="D47" s="21"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+    </row>
+    <row r="48" spans="1:11" s="24" customFormat="1">
+      <c r="A48" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="21">
         <v>46</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-    </row>
-    <row r="49" spans="1:4" s="28" customFormat="1">
-      <c r="A49" s="23" t="s">
+      <c r="D48" s="21"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+    </row>
+    <row r="49" spans="1:4" s="24" customFormat="1">
+      <c r="A49" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="21">
         <v>47</v>
       </c>
-      <c r="D49" s="25"/>
-    </row>
-    <row r="50" spans="1:4" s="28" customFormat="1">
-      <c r="A50" s="23" t="s">
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" s="24" customFormat="1">
+      <c r="A50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="21">
         <v>48</v>
       </c>
-      <c r="D50" s="25"/>
-    </row>
-    <row r="51" spans="1:4" s="28" customFormat="1">
-      <c r="A51" s="23" t="s">
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" s="24" customFormat="1">
+      <c r="A51" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="21">
         <v>49</v>
       </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:4" s="28" customFormat="1">
-      <c r="A52" s="26" t="s">
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" s="24" customFormat="1">
+      <c r="A52" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="21">
         <v>50</v>
       </c>
-      <c r="D52" s="25"/>
-    </row>
-    <row r="53" spans="1:4" ht="28">
-      <c r="A53" s="3" t="s">
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" s="24" customFormat="1" ht="28">
+      <c r="A53" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="24">
         <v>51</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" s="6" customFormat="1">
-      <c r="A54" s="7" t="s">
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" s="41" customFormat="1">
+      <c r="A54" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="48">
         <v>52</v>
       </c>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" s="6" customFormat="1">
-      <c r="A55" s="7" t="s">
+      <c r="D54" s="48"/>
+    </row>
+    <row r="55" spans="1:4" s="42" customFormat="1">
+      <c r="A55" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="45">
         <v>53</v>
       </c>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" s="6" customFormat="1">
-      <c r="A56" s="7" t="s">
+      <c r="D55" s="45"/>
+    </row>
+    <row r="56" spans="1:4" s="42" customFormat="1">
+      <c r="A56" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="45">
         <v>54</v>
       </c>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" s="6" customFormat="1">
-      <c r="A57" s="7" t="s">
+      <c r="D56" s="45"/>
+    </row>
+    <row r="57" spans="1:4" s="41" customFormat="1">
+      <c r="A57" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="41">
         <v>55</v>
       </c>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" s="6" customFormat="1">
-      <c r="A58" s="8" t="s">
+      <c r="D57" s="48"/>
+    </row>
+    <row r="58" spans="1:4" s="42" customFormat="1">
+      <c r="A58" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="42">
         <v>56</v>
       </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" s="6" customFormat="1">
-      <c r="A59" s="8" t="s">
+      <c r="D58" s="45"/>
+    </row>
+    <row r="59" spans="1:4" s="42" customFormat="1">
+      <c r="A59" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="42">
         <v>57</v>
       </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" s="6" customFormat="1">
-      <c r="A60" s="9" t="s">
+      <c r="D59" s="45"/>
+    </row>
+    <row r="60" spans="1:4" s="42" customFormat="1">
+      <c r="A60" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="42">
         <v>58</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="9" t="s">
+      <c r="D60" s="45"/>
+    </row>
+    <row r="61" spans="1:4" s="42" customFormat="1">
+      <c r="A61" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="42">
         <v>59</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="9" t="s">
+      <c r="D61" s="45"/>
+    </row>
+    <row r="62" spans="1:4" s="42" customFormat="1">
+      <c r="A62" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="42">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:4" s="42" customFormat="1">
+      <c r="A63" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="42">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:4" s="42" customFormat="1">
+      <c r="A64" s="57" t="s">
         <v>273</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="42">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:3" s="42" customFormat="1">
+      <c r="A65" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="42">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:3" s="42" customFormat="1">
+      <c r="A66" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="42">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:3" s="42" customFormat="1">
+      <c r="A67" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="42">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:3" s="42" customFormat="1">
+      <c r="A68" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="42">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
+    <row r="69" spans="1:3" s="42" customFormat="1">
+      <c r="A69" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="42">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:3" s="42" customFormat="1">
+      <c r="A70" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="42">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="9" t="s">
+    <row r="71" spans="1:3" s="42" customFormat="1">
+      <c r="A71" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="42">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:3" s="42" customFormat="1">
+      <c r="A72" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="42">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:3" s="42" customFormat="1">
+      <c r="A73" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="42">
         <v>71</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="9" t="s">
+    </row>
+    <row r="74" spans="1:3" s="42" customFormat="1">
+      <c r="A74" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="42">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:3" s="42" customFormat="1">
+      <c r="A75" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="42">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:3" s="24" customFormat="1">
+      <c r="A76" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="C76" s="11"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="7" t="s">
+      <c r="C76" s="55"/>
+    </row>
+    <row r="77" spans="1:3" s="24" customFormat="1">
+      <c r="A77" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="C77" s="11"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="7" t="s">
+      <c r="C77" s="55"/>
+    </row>
+    <row r="78" spans="1:3" s="24" customFormat="1">
+      <c r="A78" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="7" t="s">
+      <c r="C78" s="21"/>
+    </row>
+    <row r="79" spans="1:3" s="24" customFormat="1">
+      <c r="A79" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="11"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="33" t="s">
+      <c r="C79" s="55"/>
+    </row>
+    <row r="80" spans="1:3" s="24" customFormat="1">
+      <c r="A80" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="C80" s="11"/>
+      <c r="C80" s="55"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="28"/>
+      <c r="A86" s="24"/>
       <c r="B86" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="39"/>
+      <c r="A87" s="33"/>
       <c r="B87" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="32"/>
+      <c r="A88" s="28"/>
       <c r="B88" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="43"/>
+      <c r="A89" s="37"/>
       <c r="B89" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="47"/>
+      <c r="A90" s="41"/>
       <c r="B90" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="48"/>
+      <c r="A91" s="42"/>
       <c r="B91" t="s">
         <v>303</v>
       </c>
@@ -3071,1042 +3070,1042 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1">
+      <c r="A8" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>254</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" s="6" customFormat="1">
-      <c r="A19" s="7" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1">
+      <c r="A19" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>257</v>
       </c>
       <c r="D19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F57" s="6"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F60" s="6"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F62" s="6"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="6"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="6"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F67" s="6"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="6"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="6"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F71" s="6"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="6"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="D73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="D74" s="4"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="D75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="6"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="6"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="D78" s="4"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F80" s="6"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="D81" s="4"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="D82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="6"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F84" s="6"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="6"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="6"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F87" s="6"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F88" s="6"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F89" s="6"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F90" s="6"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6" s="6" customFormat="1">
-      <c r="A92" s="7" t="s">
+      <c r="D91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" s="4" customFormat="1">
+      <c r="A92" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D92"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="D93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="D93" s="4"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="7" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="7" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="7" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="7" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="7" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="7" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="7" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4144,92 +4143,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B10"/>

--- a/LCDataDictionary.xlsx
+++ b/LCDataDictionary.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="16060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
     <sheet name="browseNotes" sheetId="6" r:id="rId2"/>
     <sheet name="RejectStats" sheetId="7" r:id="rId3"/>
+    <sheet name="NaN Analysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="317">
   <si>
     <t>id</t>
   </si>
@@ -939,6 +940,45 @@
   </si>
   <si>
     <t>Standardize</t>
+  </si>
+  <si>
+    <t>verification_status</t>
+  </si>
+  <si>
+    <t>verification_status_joint</t>
+  </si>
+  <si>
+    <t>total_rev_hi_lim</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>NaNs</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>% Of Observations</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Remove? Don't know how to fill in values for NaNs</t>
+  </si>
+  <si>
+    <t>Fill in 0</t>
+  </si>
+  <si>
+    <t>Fill in 0?</t>
+  </si>
+  <si>
+    <t>Filter out these observations</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1354,8 +1394,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1518,8 +1564,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="88">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1608,8 +1761,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1690,8 +1851,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="6" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="13" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="13" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="13" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="6" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="19" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="88">
+  <cellStyles count="96">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1743,6 +1958,10 @@
     <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1771,6 +1990,10 @@
     <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2078,9 +2301,9 @@
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2364,7 +2587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="45" customFormat="1">
+    <row r="26" spans="1:3" s="45" customFormat="1" ht="28">
       <c r="A26" s="43" t="s">
         <v>22</v>
       </c>
@@ -4240,4 +4463,916 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1">
+      <c r="B1" s="81"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="28">
+      <c r="B3" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="70" t="str">
+        <f>VLOOKUP(B3,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The combined self-reported annual income provided by the co-borrowers during registration</v>
+      </c>
+      <c r="D3" s="74">
+        <v>252970</v>
+      </c>
+      <c r="E3" s="77">
+        <f>D3/252971</f>
+        <v>0.99999604697771682</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="42">
+      <c r="B4" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="70" t="str">
+        <f>VLOOKUP(B4,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>A ratio calculated using the co-borrowers' total monthly payments on the total debt obligations, excluding mortgages and the requested LC loan, divided by the co-borrowers' combined self-reported monthly income</v>
+      </c>
+      <c r="D4" s="74">
+        <v>252970</v>
+      </c>
+      <c r="E4" s="77">
+        <f t="shared" ref="E4:E47" si="0">D4/252971</f>
+        <v>0.99999604697771682</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="70" t="e">
+        <f>VLOOKUP(B5,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="74">
+        <v>252970</v>
+      </c>
+      <c r="E5" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99999604697771682</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="70" t="str">
+        <f>VLOOKUP(B6,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Ratio of total current balance to high credit/credit limit on all install acct</v>
+      </c>
+      <c r="D6" s="74">
+        <v>252845</v>
+      </c>
+      <c r="E6" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99950191919231846</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="70" t="str">
+        <f>VLOOKUP(B7,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Months since most recent installment accounts opened</v>
+      </c>
+      <c r="D7" s="74">
+        <v>252831</v>
+      </c>
+      <c r="E7" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99944657688035388</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="70" t="str">
+        <f>VLOOKUP(B8,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of open trades in last 6 months</v>
+      </c>
+      <c r="D8" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E8" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="70" t="str">
+        <f>VLOOKUP(B9,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of currently active installment trades</v>
+      </c>
+      <c r="D9" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E9" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="70" t="str">
+        <f>VLOOKUP(B10,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of installment accounts opened in past 12 months</v>
+      </c>
+      <c r="D10" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E10" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="70" t="str">
+        <f>VLOOKUP(B11,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of installment accounts opened in past 24 months</v>
+      </c>
+      <c r="D11" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E11" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="70" t="str">
+        <f>VLOOKUP(B12,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Total current balance of all installment accounts</v>
+      </c>
+      <c r="D12" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E12" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="70" t="str">
+        <f>VLOOKUP(B13,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of revolving trades opened in past 12 months</v>
+      </c>
+      <c r="D13" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E13" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="70" t="str">
+        <f>VLOOKUP(B14,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of revolving trades opened in past 24 months</v>
+      </c>
+      <c r="D14" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E14" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="70" t="str">
+        <f>VLOOKUP(B15,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Maximum current balance owed on all revolving accounts</v>
+      </c>
+      <c r="D15" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E15" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="70" t="str">
+        <f>VLOOKUP(B16,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Balance to credit limit on all trades</v>
+      </c>
+      <c r="D16" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E16" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="70" t="str">
+        <f>VLOOKUP(B17,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of personal finance inquiries</v>
+      </c>
+      <c r="D17" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E17" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="70" t="str">
+        <f>VLOOKUP(B18,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of finance trades</v>
+      </c>
+      <c r="D18" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E18" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="70" t="str">
+        <f>VLOOKUP(B19,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of credit inquiries in past 12 months</v>
+      </c>
+      <c r="D19" s="74">
+        <v>252827</v>
+      </c>
+      <c r="E19" s="77">
+        <f t="shared" si="0"/>
+        <v>0.99943076479122117</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="28">
+      <c r="B20" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="71" t="str">
+        <f>VLOOKUP(B20,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The number of months since the last public record.</v>
+      </c>
+      <c r="D20" s="75">
+        <v>221373</v>
+      </c>
+      <c r="E20" s="78">
+        <f t="shared" si="0"/>
+        <v>0.87509240189586945</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="28">
+      <c r="B21" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="71" t="str">
+        <f>VLOOKUP(B21,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The number of months since the borrower's last delinquency.</v>
+      </c>
+      <c r="D21" s="75">
+        <v>140820</v>
+      </c>
+      <c r="E21" s="78">
+        <f t="shared" si="0"/>
+        <v>0.55666459791833844</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="71" t="str">
+        <f>VLOOKUP(B22,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Total collection amounts ever owed</v>
+      </c>
+      <c r="D22" s="75">
+        <v>63708</v>
+      </c>
+      <c r="E22" s="78">
+        <f t="shared" si="0"/>
+        <v>0.25183914361725257</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="71" t="str">
+        <f>VLOOKUP(B23,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Total current balance of all accounts</v>
+      </c>
+      <c r="D23" s="75">
+        <v>63708</v>
+      </c>
+      <c r="E23" s="78">
+        <f t="shared" si="0"/>
+        <v>0.25183914361725257</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="71" t="e">
+        <f>VLOOKUP(B24,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="75">
+        <v>63708</v>
+      </c>
+      <c r="E24" s="78">
+        <f t="shared" si="0"/>
+        <v>0.25183914361725257</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="28">
+      <c r="B25" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="72" t="str">
+        <f>VLOOKUP(B25,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
+      </c>
+      <c r="D25" s="76">
+        <v>9897</v>
+      </c>
+      <c r="E25" s="79">
+        <f t="shared" si="0"/>
+        <v>3.9123061536697881E-2</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="28">
+      <c r="B26" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="72" t="str">
+        <f>VLOOKUP(B26,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
+      </c>
+      <c r="D26" s="76">
+        <v>199</v>
+      </c>
+      <c r="E26" s="79">
+        <f t="shared" si="0"/>
+        <v>7.8665143435413542E-4</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="72" t="str">
+        <f>VLOOKUP(B27,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>A unique LC assigned ID for the loan listing.</v>
+      </c>
+      <c r="D27" s="76">
+        <v>0</v>
+      </c>
+      <c r="E27" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="72" t="str">
+        <f>VLOOKUP(B28,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>A unique LC assigned Id for the borrower member.</v>
+      </c>
+      <c r="D28" s="76">
+        <v>0</v>
+      </c>
+      <c r="E28" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="28">
+      <c r="B29" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="72" t="str">
+        <f>VLOOKUP(B29,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
+      </c>
+      <c r="D29" s="76">
+        <v>0</v>
+      </c>
+      <c r="E29" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="72" t="str">
+        <f>VLOOKUP(B30,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The total amount committed to that loan at that point in time.</v>
+      </c>
+      <c r="D30" s="76">
+        <v>0</v>
+      </c>
+      <c r="E30" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="72" t="str">
+        <f>VLOOKUP(B31,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The total amount committed by investors for that loan at that point in time.</v>
+      </c>
+      <c r="D31" s="76">
+        <v>0</v>
+      </c>
+      <c r="E31" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="72" t="str">
+        <f>VLOOKUP(B32,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The monthly payment owed by the borrower if the loan originates.</v>
+      </c>
+      <c r="D32" s="76">
+        <v>0</v>
+      </c>
+      <c r="E32" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="28">
+      <c r="B33" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="72" t="str">
+        <f>VLOOKUP(B33,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The home ownership status provided by the borrower during registration. Our values are: RENT, OWN, MORTGAGE, OTHER.</v>
+      </c>
+      <c r="D33" s="76">
+        <v>0</v>
+      </c>
+      <c r="E33" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="72" t="str">
+        <f>VLOOKUP(B34,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The self-reported annual income provided by the borrower during registration.</v>
+      </c>
+      <c r="D34" s="76">
+        <v>0</v>
+      </c>
+      <c r="E34" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="72" t="e">
+        <f>VLOOKUP(B35,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="76">
+        <v>0</v>
+      </c>
+      <c r="E35" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="72" t="str">
+        <f>VLOOKUP(B36,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v xml:space="preserve">A category provided by the borrower for the loan request. </v>
+      </c>
+      <c r="D36" s="76">
+        <v>0</v>
+      </c>
+      <c r="E36" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="72" t="str">
+        <f>VLOOKUP(B37,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The state provided by the borrower in the loan application</v>
+      </c>
+      <c r="D37" s="76">
+        <v>0</v>
+      </c>
+      <c r="E37" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="42">
+      <c r="B38" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="72" t="str">
+        <f>VLOOKUP(B38,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
+      </c>
+      <c r="D38" s="76">
+        <v>0</v>
+      </c>
+      <c r="E38" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="28">
+      <c r="B39" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="72" t="str">
+        <f>VLOOKUP(B39,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+      </c>
+      <c r="D39" s="76">
+        <v>0</v>
+      </c>
+      <c r="E39" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="72" t="str">
+        <f>VLOOKUP(B40,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+      </c>
+      <c r="D40" s="76">
+        <v>0</v>
+      </c>
+      <c r="E40" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="72" t="str">
+        <f>VLOOKUP(B41,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The number of open credit lines in the borrower's credit file.</v>
+      </c>
+      <c r="D41" s="76">
+        <v>0</v>
+      </c>
+      <c r="E41" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="72" t="str">
+        <f>VLOOKUP(B42,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Number of derogatory public records</v>
+      </c>
+      <c r="D42" s="76">
+        <v>0</v>
+      </c>
+      <c r="E42" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="72" t="str">
+        <f>VLOOKUP(B43,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Total credit revolving balance</v>
+      </c>
+      <c r="D43" s="76">
+        <v>0</v>
+      </c>
+      <c r="E43" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="72" t="str">
+        <f>VLOOKUP(B44,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The total number of credit lines currently in the borrower's credit file</v>
+      </c>
+      <c r="D44" s="76">
+        <v>0</v>
+      </c>
+      <c r="E44" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="72" t="str">
+        <f>VLOOKUP(B45,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The initial listing status of the loan. Possible values are – W, F</v>
+      </c>
+      <c r="D45" s="76">
+        <v>0</v>
+      </c>
+      <c r="E45" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="28">
+      <c r="B46" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="72" t="str">
+        <f>VLOOKUP(B46,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>Indicates whether the loan is an individual application or a joint application with two co-borrowers</v>
+      </c>
+      <c r="D46" s="76">
+        <v>0</v>
+      </c>
+      <c r="E46" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15" thickBot="1">
+      <c r="B47" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="73" t="str">
+        <f>VLOOKUP(B47,LoanStats!$A$2:$B$80,2,FALSE)</f>
+        <v>The number of accounts on which the borrower is now delinquent.</v>
+      </c>
+      <c r="D47" s="86">
+        <v>0</v>
+      </c>
+      <c r="E47" s="87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="C48" s="80"/>
+    </row>
+  </sheetData>
+  <sortState ref="B2:D46">
+    <sortCondition descending="1" ref="D2:D46"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>